--- a/Arbeitsdokumente/Interview zur Anforderungserhebung.xlsx
+++ b/Arbeitsdokumente/Interview zur Anforderungserhebung.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2AEC80-2E35-4CD1-82E6-BD70A3D92640}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B206C9A-1A14-43E7-9198-0D14F07A2CC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="525" windowWidth="25605" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -827,7 +827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -895,9 +895,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -911,6 +908,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1195,17 +1198,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="53.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="89.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="69.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="127" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="115.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="56.85546875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.85546875" style="1"/>
   </cols>
@@ -1221,17 +1224,17 @@
     </row>
     <row r="2" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="28" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1248,12 +1251,12 @@
       <c r="D4" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="28" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -1265,7 +1268,7 @@
       <c r="D5" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="28" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1276,9 +1279,9 @@
       <c r="B6" s="10"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="15"/>
+      <c r="E6" s="28"/>
     </row>
-    <row r="7" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1291,12 +1294,12 @@
       <c r="D7" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="28" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:5" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1308,11 +1311,11 @@
       <c r="D8" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="28" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>52</v>
       </c>
@@ -1323,12 +1326,12 @@
         <v>107</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="28" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1340,12 +1343,12 @@
       <c r="D10" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="28" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="5"/>
@@ -1355,9 +1358,9 @@
       <c r="D11" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E11" s="15"/>
+      <c r="E11" s="28"/>
     </row>
-    <row r="12" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -1370,7 +1373,7 @@
       <c r="D12" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="28" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1383,9 +1386,9 @@
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="15"/>
+      <c r="E13" s="28"/>
     </row>
-    <row r="14" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>50</v>
       </c>
@@ -1396,11 +1399,11 @@
       <c r="D14" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="28" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
@@ -1411,7 +1414,7 @@
       <c r="D15" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="28" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1424,7 +1427,7 @@
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="15"/>
+      <c r="E16" s="28"/>
     </row>
     <row r="17" spans="1:16384" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
@@ -1461,7 +1464,7 @@
       <c r="E20" s="15"/>
     </row>
     <row r="21" spans="1:16384" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="24" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -1476,7 +1479,7 @@
       </c>
     </row>
     <row r="22" spans="1:16384" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="24" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="10"/>
@@ -1487,7 +1490,7 @@
       </c>
     </row>
     <row r="23" spans="1:16384" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="24" t="s">
         <v>57</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -33821,7 +33824,7 @@
       <c r="XFD24" s="20"/>
     </row>
     <row r="25" spans="1:16384" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -49991,7 +49994,7 @@
       <c r="XFD25" s="20"/>
     </row>
     <row r="26" spans="1:16384" s="5" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="24" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -50477,7 +50480,7 @@
       <c r="HW27" s="1"/>
     </row>
     <row r="28" spans="1:16384" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="24" t="s">
         <v>59</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -50527,7 +50530,7 @@
       </c>
     </row>
     <row r="32" spans="1:16384" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="24" t="s">
         <v>62</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -50544,7 +50547,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="25" t="s">
         <v>60</v>
       </c>
       <c r="B33" s="10" t="s">
@@ -50559,7 +50562,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="25" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="10">
@@ -50572,7 +50575,7 @@
       <c r="E34" s="15"/>
     </row>
     <row r="35" spans="1:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="25" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="10" t="s">
@@ -50646,7 +50649,7 @@
       <c r="E40" s="15"/>
     </row>
     <row r="41" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="24" t="s">
         <v>31</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -50676,7 +50679,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="25" t="s">
         <v>33</v>
       </c>
       <c r="B43" s="10" t="s">
@@ -50714,7 +50717,7 @@
       <c r="E46" s="15"/>
     </row>
     <row r="47" spans="1:5" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="24" t="s">
         <v>36</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -50731,7 +50734,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="24" t="s">
         <v>41</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -50748,7 +50751,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="25" t="s">
         <v>46</v>
       </c>
       <c r="B49" s="10"/>
@@ -50761,7 +50764,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="26" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -50778,7 +50781,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="26" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -50795,7 +50798,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="27" t="s">
         <v>47</v>
       </c>
       <c r="B52" s="7"/>

--- a/Arbeitsdokumente/Interview zur Anforderungserhebung.xlsx
+++ b/Arbeitsdokumente/Interview zur Anforderungserhebung.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B206C9A-1A14-43E7-9198-0D14F07A2CC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8D004E-EDD7-EC42-96B1-A238FA9F61AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="525" windowWidth="25605" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1198,22 +1193,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="D37" zoomScale="85" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="69.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="127" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="115.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.85546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.85546875" style="1"/>
+    <col min="5" max="5" width="115.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
@@ -1222,8 +1217,8 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28"/>
       <c r="B3" s="28" t="s">
         <v>11</v>
@@ -1238,7 +1233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>54</v>
       </c>
@@ -1255,7 +1250,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>55</v>
       </c>
@@ -1272,7 +1267,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>0</v>
       </c>
@@ -1281,7 +1276,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="28"/>
     </row>
-    <row r="7" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1298,7 +1293,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="85" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
         <v>14</v>
       </c>
@@ -1315,7 +1310,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>52</v>
       </c>
@@ -1330,7 +1325,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
         <v>51</v>
       </c>
@@ -1347,7 +1342,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
         <v>19</v>
       </c>
@@ -1360,7 +1355,7 @@
       </c>
       <c r="E11" s="28"/>
     </row>
-    <row r="12" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -1377,7 +1372,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
@@ -1388,7 +1383,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="28"/>
     </row>
-    <row r="14" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>50</v>
       </c>
@@ -1403,7 +1398,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
@@ -1418,7 +1413,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
@@ -1429,14 +1424,14 @@
       <c r="D16" s="5"/>
       <c r="E16" s="28"/>
     </row>
-    <row r="17" spans="1:16384" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16384" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="15"/>
     </row>
-    <row r="18" spans="1:16384" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16384" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>30</v>
       </c>
@@ -1445,7 +1440,7 @@
       <c r="D18" s="10"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="1:16384" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16384" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -1454,7 +1449,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="1:16384" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16384" ht="57" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>22</v>
       </c>
@@ -1463,7 +1458,7 @@
       <c r="D20" s="10"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="1:16384" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16384" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
         <v>56</v>
       </c>
@@ -1478,7 +1473,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:16384" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16384" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
         <v>45</v>
       </c>
@@ -1489,7 +1484,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:16384" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16384" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
         <v>57</v>
       </c>
@@ -17659,7 +17654,7 @@
       <c r="XFC23" s="6"/>
       <c r="XFD23" s="6"/>
     </row>
-    <row r="24" spans="1:16384" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16384" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>35</v>
       </c>
@@ -33823,7 +33818,7 @@
       <c r="XFC24" s="20"/>
       <c r="XFD24" s="20"/>
     </row>
-    <row r="25" spans="1:16384" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16384" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
         <v>58</v>
       </c>
@@ -49993,7 +49988,7 @@
       <c r="XFC25" s="20"/>
       <c r="XFD25" s="20"/>
     </row>
-    <row r="26" spans="1:16384" s="5" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16384" s="5" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
         <v>37</v>
       </c>
@@ -50236,7 +50231,7 @@
       <c r="HV26" s="1"/>
       <c r="HW26" s="1"/>
     </row>
-    <row r="27" spans="1:16384" s="12" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16384" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>40</v>
       </c>
@@ -50479,7 +50474,7 @@
       <c r="HV27" s="1"/>
       <c r="HW27" s="1"/>
     </row>
-    <row r="28" spans="1:16384" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16384" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
         <v>59</v>
       </c>
@@ -50496,7 +50491,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:16384" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16384" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
@@ -50505,7 +50500,7 @@
       <c r="D29" s="10"/>
       <c r="E29" s="15"/>
     </row>
-    <row r="30" spans="1:16384" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16384" ht="57" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>24</v>
       </c>
@@ -50514,7 +50509,7 @@
       <c r="D30" s="5"/>
       <c r="E30" s="15"/>
     </row>
-    <row r="31" spans="1:16384" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16384" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>61</v>
       </c>
@@ -50529,7 +50524,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:16384" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16384" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
         <v>62</v>
       </c>
@@ -50546,7 +50541,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
         <v>60</v>
       </c>
@@ -50561,7 +50556,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
         <v>38</v>
       </c>
@@ -50574,7 +50569,7 @@
       </c>
       <c r="E34" s="15"/>
     </row>
-    <row r="35" spans="1:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="25" t="s">
         <v>42</v>
       </c>
@@ -50591,7 +50586,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
         <v>43</v>
       </c>
@@ -50606,7 +50601,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
         <v>44</v>
       </c>
@@ -50621,7 +50616,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
         <v>39</v>
       </c>
@@ -50630,7 +50625,7 @@
       <c r="D38" s="10"/>
       <c r="E38" s="15"/>
     </row>
-    <row r="39" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>21</v>
       </c>
@@ -50639,7 +50634,7 @@
       <c r="D39" s="4"/>
       <c r="E39" s="15"/>
     </row>
-    <row r="40" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>25</v>
       </c>
@@ -50648,7 +50643,7 @@
       <c r="D40" s="10"/>
       <c r="E40" s="15"/>
     </row>
-    <row r="41" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
         <v>31</v>
       </c>
@@ -50665,7 +50660,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>32</v>
       </c>
@@ -50678,7 +50673,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
         <v>33</v>
       </c>
@@ -50689,7 +50684,7 @@
       <c r="D43" s="10"/>
       <c r="E43" s="15"/>
     </row>
-    <row r="44" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
         <v>34</v>
       </c>
@@ -50698,7 +50693,7 @@
       <c r="D44" s="10"/>
       <c r="E44" s="15"/>
     </row>
-    <row r="45" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
@@ -50707,7 +50702,7 @@
       <c r="D45" s="4"/>
       <c r="E45" s="15"/>
     </row>
-    <row r="46" spans="1:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="57" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>27</v>
       </c>
@@ -50716,7 +50711,7 @@
       <c r="D46" s="10"/>
       <c r="E46" s="15"/>
     </row>
-    <row r="47" spans="1:5" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="57" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="24" t="s">
         <v>36</v>
       </c>
@@ -50733,7 +50728,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="24" t="s">
         <v>41</v>
       </c>
@@ -50750,7 +50745,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="25" t="s">
         <v>46</v>
       </c>
@@ -50763,7 +50758,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="26" t="s">
         <v>48</v>
       </c>
@@ -50780,7 +50775,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="26" t="s">
         <v>49</v>
       </c>
@@ -50797,7 +50792,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="27" t="s">
         <v>47</v>
       </c>
@@ -50812,7 +50807,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>1</v>
       </c>
@@ -50821,7 +50816,7 @@
       <c r="D53" s="4"/>
       <c r="E53" s="15"/>
     </row>
-    <row r="54" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>2</v>
       </c>
@@ -50832,7 +50827,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>28</v>
       </c>
@@ -50841,7 +50836,7 @@
       <c r="D55" s="5"/>
       <c r="E55" s="15"/>
     </row>
-    <row r="56" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>5</v>
       </c>
@@ -50850,7 +50845,7 @@
       <c r="D56" s="5"/>
       <c r="E56" s="15"/>
     </row>
-    <row r="57" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>7</v>
       </c>
@@ -50859,14 +50854,14 @@
       <c r="D57" s="5"/>
       <c r="E57" s="15"/>
     </row>
-    <row r="58" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="15"/>
     </row>
-    <row r="59" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>6</v>
       </c>
@@ -50875,7 +50870,7 @@
       <c r="D59" s="5"/>
       <c r="E59" s="15"/>
     </row>
-    <row r="60" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>29</v>
       </c>
@@ -50892,7 +50887,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>3</v>
       </c>
@@ -50905,7 +50900,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>4</v>
       </c>
@@ -50922,7 +50917,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>53</v>
       </c>

--- a/Arbeitsdokumente/Interview zur Anforderungserhebung.xlsx
+++ b/Arbeitsdokumente/Interview zur Anforderungserhebung.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8D004E-EDD7-EC42-96B1-A238FA9F61AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1B5A45-972C-43CC-BF2D-A18BAB988B3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25605" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -191,9 +191,6 @@
     <t>Wieviele Kontake sollen zukünftig mit der CRM Lösung verwaltet werden? --&gt; wichtige Frage für die Auswahl der Lösung aber nicht fürs interview</t>
   </si>
   <si>
-    <t>Welche Funktionen/Möglichkeiten vermissen Sie im derzeitigen CRM-System? --&gt;welche funktionen werden genutzt --&gt; vor dieser</t>
-  </si>
-  <si>
     <t>Auf das Eventmanagement genauer eingehen --&gt; wie soll es funktionieren?</t>
   </si>
   <si>
@@ -324,9 +321,6 @@
     <t>Hat überhaupt keine Relevanz</t>
   </si>
   <si>
-    <t xml:space="preserve">Chef, Andorfer, David, Barbara und ich </t>
-  </si>
-  <si>
     <t>Selbe wie bei Andorfer</t>
   </si>
   <si>
@@ -361,9 +355,6 @@
   </si>
   <si>
     <t>Irrelevant.. Hauptsächlich nur Text und keine Files.. --&gt;wir nutzen keine Dokumente.. Wir speichern keine ab im CRM System..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lizensprobleme, Exotensoftware.. Wenn nicht Opensource..wenn nicht  Linux oder Windows-Lauffähig..Wenn nicht  Flexibel und ausbaubar. </t>
   </si>
   <si>
     <t>Exportmöglichkeit mit CSV--&gt;Excel..</t>
@@ -471,9 +462,6 @@
     <t>meines Wissens muss man das manuell verschieben, es gibt keine Eiinschränkung auf Jahre</t>
   </si>
   <si>
-    <t>im Momn zu keinen..sinnvoll wäre es zur Gruppe.. Sprich E-Mail-Kalendar</t>
-  </si>
-  <si>
     <t>keine Ahnung</t>
   </si>
   <si>
@@ -558,9 +546,6 @@
     <t>Alle Mails die auf reply drücken kommen zur Angela und diese werden bei ihr in bestimmte Folder unterstützt</t>
   </si>
   <si>
-    <t xml:space="preserve">einzel Mails und Michi mit einem Trick Massenmails.. </t>
-  </si>
-  <si>
     <t xml:space="preserve">gar nicht. Nicht im Tool </t>
   </si>
   <si>
@@ -583,6 +568,21 @@
   </si>
   <si>
     <t>Newsletter vielleicht, viel mehr Erweiterung nicht.. Sind nicht konkret geplant..</t>
+  </si>
+  <si>
+    <t>Welche Funktionen/Möglichkeiten vermissen Sie im derzeitigen CRM-System? --&gt;welche funktionen werden genutzt?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chef, Angela, David, Barbara und ich </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lizenzprobleme, Exotensoftware.. Wenn nicht Opensource..wenn nicht  Linux oder Windows-Lauffähig..Wenn nicht  Flexibel und ausbaubar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">einzel Mails und Michi ermöglicht mit einem Workaround Massenmails.. </t>
+  </si>
+  <si>
+    <t>im Moment zu keinen..sinnvoll wäre es zur groupWise - Sprich E-Mail-Kalendar</t>
   </si>
 </sst>
 </file>
@@ -1193,22 +1193,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D37" zoomScale="85" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="E49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="69.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="127" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="115.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="73" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="144.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="115.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.85546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
@@ -1217,8 +1217,8 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="28" t="s">
         <v>11</v>
@@ -1233,41 +1233,41 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>93</v>
+      <c r="B5" s="21" t="s">
+        <v>62</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>94</v>
+      <c r="C5" s="21" t="s">
+        <v>102</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>155</v>
+      <c r="D5" s="21" t="s">
+        <v>152</v>
       </c>
-      <c r="E4" s="28" t="s">
-        <v>121</v>
+      <c r="E5" s="28" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>0</v>
       </c>
@@ -1276,162 +1276,162 @@
       <c r="D6" s="4"/>
       <c r="E6" s="28"/>
     </row>
-    <row r="7" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="85" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E11" s="28"/>
     </row>
-    <row r="12" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="28"/>
     </row>
-    <row r="14" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="28"/>
     </row>
-    <row r="17" spans="1:16384" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16384" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="15"/>
     </row>
-    <row r="18" spans="1:16384" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16384" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>30</v>
       </c>
@@ -1440,7 +1440,7 @@
       <c r="D18" s="10"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="1:16384" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16384" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -1449,7 +1449,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="1:16384" ht="57" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16384" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>22</v>
       </c>
@@ -1458,22 +1458,22 @@
       <c r="D20" s="10"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="1:16384" ht="43" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16384" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:16384" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16384" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>45</v>
       </c>
@@ -1481,24 +1481,24 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:16384" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16384" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="HX23" s="6"/>
       <c r="HY23" s="6"/>
@@ -17654,12 +17654,12 @@
       <c r="XFC23" s="6"/>
       <c r="XFD23" s="6"/>
     </row>
-    <row r="24" spans="1:16384" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16384" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -33818,21 +33818,21 @@
       <c r="XFC24" s="20"/>
       <c r="XFD24" s="20"/>
     </row>
-    <row r="25" spans="1:16384" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16384" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="HX25" s="20"/>
       <c r="HY25" s="20"/>
@@ -49988,21 +49988,21 @@
       <c r="XFC25" s="20"/>
       <c r="XFD25" s="20"/>
     </row>
-    <row r="26" spans="1:16384" s="5" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16384" s="5" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -50231,21 +50231,21 @@
       <c r="HV26" s="1"/>
       <c r="HW26" s="1"/>
     </row>
-    <row r="27" spans="1:16384" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16384" s="12" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -50474,24 +50474,24 @@
       <c r="HV27" s="1"/>
       <c r="HW27" s="1"/>
     </row>
-    <row r="28" spans="1:16384" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16384" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:16384" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16384" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
@@ -50500,7 +50500,7 @@
       <c r="D29" s="10"/>
       <c r="E29" s="15"/>
     </row>
-    <row r="30" spans="1:16384" ht="57" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16384" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>24</v>
       </c>
@@ -50509,54 +50509,54 @@
       <c r="D30" s="5"/>
       <c r="E30" s="15"/>
     </row>
-    <row r="31" spans="1:16384" ht="43" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16384" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:16384" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16384" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>38</v>
       </c>
@@ -50565,58 +50565,58 @@
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E34" s="15"/>
     </row>
-    <row r="35" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>39</v>
       </c>
@@ -50625,7 +50625,7 @@
       <c r="D38" s="10"/>
       <c r="E38" s="15"/>
     </row>
-    <row r="39" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>21</v>
       </c>
@@ -50634,7 +50634,7 @@
       <c r="D39" s="4"/>
       <c r="E39" s="15"/>
     </row>
-    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>25</v>
       </c>
@@ -50643,48 +50643,48 @@
       <c r="D40" s="10"/>
       <c r="E40" s="15"/>
     </row>
-    <row r="41" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>31</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>33</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="15"/>
     </row>
-    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>34</v>
       </c>
@@ -50693,7 +50693,7 @@
       <c r="D44" s="10"/>
       <c r="E44" s="15"/>
     </row>
-    <row r="45" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
@@ -50702,7 +50702,7 @@
       <c r="D45" s="4"/>
       <c r="E45" s="15"/>
     </row>
-    <row r="46" spans="1:5" ht="57" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>27</v>
       </c>
@@ -50711,103 +50711,103 @@
       <c r="D46" s="10"/>
       <c r="E46" s="15"/>
     </row>
-    <row r="47" spans="1:5" ht="57" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>36</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>41</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
         <v>46</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
         <v>47</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>1</v>
       </c>
@@ -50816,7 +50816,7 @@
       <c r="D53" s="4"/>
       <c r="E53" s="15"/>
     </row>
-    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>2</v>
       </c>
@@ -50824,10 +50824,10 @@
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>28</v>
       </c>
@@ -50836,7 +50836,7 @@
       <c r="D55" s="5"/>
       <c r="E55" s="15"/>
     </row>
-    <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>5</v>
       </c>
@@ -50845,7 +50845,7 @@
       <c r="D56" s="5"/>
       <c r="E56" s="15"/>
     </row>
-    <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>7</v>
       </c>
@@ -50854,14 +50854,14 @@
       <c r="D57" s="5"/>
       <c r="E57" s="15"/>
     </row>
-    <row r="58" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="15"/>
     </row>
-    <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>6</v>
       </c>
@@ -50870,56 +50870,56 @@
       <c r="D59" s="5"/>
       <c r="E59" s="15"/>
     </row>
-    <row r="60" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
